--- a/sitio/PensumOriginalEnglish.xlsx
+++ b/sitio/PensumOriginalEnglish.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Marquez\Desktop\SITIOSWEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Marquez\Contacts\sitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246CE70-6E29-4579-B5C8-19F08FA0A735}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E98AD2-4696-4C75-99F2-D8EAE4CD15A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7515" tabRatio="293" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Actual" sheetId="11" r:id="rId1"/>
-    <sheet name="1993-1998 " sheetId="12" r:id="rId2"/>
+    <sheet name="1993-1998 " sheetId="12" r:id="rId1"/>
+    <sheet name="Actual" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="199">
   <si>
     <t>MTE115</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>Mathematics I</t>
-  </si>
-  <si>
-    <t>Informátic Introduction</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -470,18 +467,6 @@
     <t>Systems Theory</t>
   </si>
   <si>
-    <t>Eléctive Technique III</t>
-  </si>
-  <si>
-    <t>Eléctive Technique IV</t>
-  </si>
-  <si>
-    <t>Eléctive Technique V</t>
-  </si>
-  <si>
-    <t>Eléctive Technique VI</t>
-  </si>
-  <si>
     <t>Management Information Systems</t>
   </si>
   <si>
@@ -537,9 +522,6 @@
   </si>
   <si>
     <t>Internet Programming Techniques</t>
-  </si>
-  <si>
-    <t>Elective Techniques</t>
   </si>
   <si>
     <t>Offered</t>
@@ -604,9 +586,6 @@
     <t>Object-Oriented Programming</t>
   </si>
   <si>
-    <t>No Offered</t>
-  </si>
-  <si>
     <t>Economic Models</t>
   </si>
   <si>
@@ -616,16 +595,34 @@
     <t>CURRENT STUDY PLAN</t>
   </si>
   <si>
-    <t>CARRER: INFORMATION SYSTEMS ENGINEERING</t>
-  </si>
-  <si>
     <t>STUDY PLAN BETWEEN 1993 AND 1998</t>
   </si>
   <si>
-    <t>Elective Subject No</t>
-  </si>
-  <si>
     <t>Longer Offered</t>
+  </si>
+  <si>
+    <t>CAREER: ENGINEERING OF INFORMATIC SYSTEMS</t>
+  </si>
+  <si>
+    <t>Informatic Introduction</t>
+  </si>
+  <si>
+    <t>Elective Technique III</t>
+  </si>
+  <si>
+    <t>Elective Technique IV</t>
+  </si>
+  <si>
+    <t>Elective Technique V</t>
+  </si>
+  <si>
+    <t>Elective Technique VI</t>
+  </si>
+  <si>
+    <t>Elective Subjects</t>
+  </si>
+  <si>
+    <t>Elective Subjects No</t>
   </si>
 </sst>
 </file>
@@ -1164,6 +1161,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,19 +1188,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,30 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,7 +1272,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AEEC4-A264-46F3-926B-CF90B1DD9846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349065B7-F585-4569-94A7-B0E217BBD0DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1337,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349065B7-F585-4569-94A7-B0E217BBD0DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541AEEC4-A264-46F3-926B-CF90B1DD9846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,11 +1702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4030761-18DC-4648-957B-684C79604405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043CBA6-BA30-4089-BBAC-86D48B28749D}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC42" sqref="AC42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,148 +1775,148 @@
       <c r="A2" s="9"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
       <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
+      <c r="D4" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
       <c r="AG4" s="9"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
+      <c r="D5" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1959,57 +1956,57 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="63"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="63"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="63"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="63" t="s">
+      <c r="T7" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="63"/>
+      <c r="U7" s="46"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="63" t="s">
+      <c r="W7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="63"/>
+      <c r="X7" s="46"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Z7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="63"/>
+      <c r="AA7" s="46"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AC7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="46"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="36" t="s">
         <v>81</v>
       </c>
       <c r="AG7" s="9"/>
@@ -2126,53 +2123,53 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="50"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="50"/>
+      <c r="U10" s="48"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="49" t="s">
+      <c r="W10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="50"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="49" t="s">
+      <c r="Z10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="50"/>
+      <c r="AA10" s="48"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="49" t="s">
+      <c r="AC10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="50"/>
+      <c r="AD10" s="48"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="4" t="s">
         <v>70</v>
@@ -2181,55 +2178,55 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="45"/>
+      <c r="E11" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="50"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="N11" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="50"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="50"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="U11" s="45"/>
+      <c r="T11" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="U11" s="50"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="X11" s="45"/>
+      <c r="W11" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="X11" s="50"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA11" s="45"/>
+      <c r="Z11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD11" s="50"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="4" t="s">
         <v>63</v>
@@ -2238,35 +2235,35 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="4" t="s">
         <v>64</v>
@@ -2275,53 +2272,53 @@
     </row>
     <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="51">
+      <c r="K13" s="53">
         <v>10</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="51">
+      <c r="T13" s="53">
         <v>26</v>
       </c>
-      <c r="U13" s="52"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="51">
+      <c r="W13" s="53">
         <v>30</v>
       </c>
-      <c r="X13" s="52"/>
+      <c r="X13" s="54"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="51" t="s">
+      <c r="Z13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="52"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="51" t="s">
+      <c r="AC13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="52"/>
+      <c r="AD13" s="54"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="4" t="s">
         <v>68</v>
@@ -2444,53 +2441,53 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="50"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="49" t="s">
+      <c r="W16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="50"/>
+      <c r="X16" s="48"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="49" t="s">
+      <c r="Z16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="50"/>
+      <c r="AA16" s="48"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="49" t="s">
+      <c r="AC16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AD16" s="50"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="4" t="s">
         <v>62</v>
@@ -2499,55 +2496,55 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="45"/>
+      <c r="E17" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="50"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="H17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="50"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="45"/>
+      <c r="K17" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="50"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="45"/>
+      <c r="N17" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="50"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="R17" s="45"/>
+      <c r="Q17" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="R17" s="50"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="U17" s="45"/>
+      <c r="T17" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" s="50"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="X17" s="45"/>
+      <c r="W17" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" s="50"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA17" s="45"/>
+      <c r="Z17" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA17" s="50"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD17" s="45"/>
+      <c r="AC17" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD17" s="50"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="4" t="s">
         <v>3</v>
@@ -2556,35 +2553,35 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="52"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="4" t="s">
         <v>67</v>
@@ -2593,53 +2590,53 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="51">
+      <c r="E19" s="53">
         <v>2</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="51">
+      <c r="H19" s="53">
         <v>6</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="51">
+      <c r="K19" s="53">
         <v>11</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="52"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="51" t="s">
+      <c r="Q19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="52"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="51">
+      <c r="W19" s="53">
         <v>30</v>
       </c>
-      <c r="X19" s="52"/>
+      <c r="X19" s="54"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="51">
+      <c r="Z19" s="53">
         <v>32</v>
       </c>
-      <c r="AA19" s="52"/>
+      <c r="AA19" s="54"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="51" t="s">
+      <c r="AC19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="52"/>
+      <c r="AD19" s="54"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="4" t="s">
         <v>73</v>
@@ -2760,55 +2757,55 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="50"/>
+      <c r="B22" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="48"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="50"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="R22" s="50"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="49" t="s">
+      <c r="T22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="50"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="49" t="s">
+      <c r="W22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="50"/>
+      <c r="X22" s="48"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="49" t="s">
+      <c r="Z22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AA22" s="50"/>
+      <c r="AA22" s="48"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="49" t="s">
+      <c r="AC22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AD22" s="50"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="4" t="s">
         <v>67</v>
@@ -2817,55 +2814,55 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="50"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="O23" s="45"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="R23" s="45"/>
+      <c r="Q23" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" s="50"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="45"/>
+      <c r="T23" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="U23" s="50"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="X23" s="45"/>
+      <c r="W23" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="X23" s="50"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA23" s="45"/>
+      <c r="Z23" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD23" s="45"/>
+      <c r="AC23" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD23" s="50"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="4" t="s">
         <v>63</v>
@@ -2874,35 +2871,35 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="52"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="52"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="4" t="s">
         <v>96</v>
@@ -2911,55 +2908,55 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="51">
+      <c r="E25" s="53">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="51">
+      <c r="H25" s="53">
         <v>7</v>
       </c>
-      <c r="I25" s="52"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="51">
+      <c r="K25" s="53">
         <v>12</v>
       </c>
-      <c r="L25" s="52"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="52"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="51">
+      <c r="Q25" s="53">
         <v>22</v>
       </c>
-      <c r="R25" s="52"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="51">
+      <c r="T25" s="53">
         <v>27</v>
       </c>
-      <c r="U25" s="52"/>
+      <c r="U25" s="54"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="51" t="s">
+      <c r="W25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="52"/>
+      <c r="X25" s="54"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="51" t="s">
+      <c r="Z25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AA25" s="52"/>
+      <c r="AA25" s="54"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="51" t="s">
+      <c r="AC25" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="52"/>
+      <c r="AD25" s="54"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="9"/>
@@ -3076,196 +3073,196 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="50"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="50"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="50"/>
+      <c r="Q28" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="48"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="49" t="s">
+      <c r="T28" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="50"/>
+      <c r="U28" s="48"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="X28" s="50"/>
+      <c r="W28" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="X28" s="48"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="49" t="s">
+      <c r="Z28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="AA28" s="50"/>
+      <c r="AA28" s="48"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="50"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="48"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="9"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O29" s="45"/>
+      <c r="N29" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="50"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="R29" s="45"/>
+      <c r="Q29" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="R29" s="50"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="U29" s="45"/>
+      <c r="T29" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="U29" s="50"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="X29" s="45"/>
+      <c r="W29" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="X29" s="50"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA29" s="45"/>
+      <c r="Z29" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA29" s="50"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD29" s="45"/>
+      <c r="AC29" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD29" s="50"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="9"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="52"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="47"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="52"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="9"/>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="51">
+      <c r="E31" s="53">
         <v>3</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="51">
+      <c r="H31" s="53">
         <v>6</v>
       </c>
-      <c r="I31" s="52"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="51">
+      <c r="K31" s="53">
         <v>12</v>
       </c>
-      <c r="L31" s="52"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="51">
+      <c r="N31" s="53">
         <v>18</v>
       </c>
-      <c r="O31" s="52"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="51">
+      <c r="Q31" s="53">
         <v>12</v>
       </c>
-      <c r="R31" s="52"/>
+      <c r="R31" s="54"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="51" t="s">
+      <c r="T31" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="52"/>
+      <c r="U31" s="54"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="51">
+      <c r="W31" s="53">
         <v>33</v>
       </c>
-      <c r="X31" s="52"/>
+      <c r="X31" s="54"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="51">
+      <c r="Z31" s="53">
         <v>38</v>
       </c>
-      <c r="AA31" s="52"/>
+      <c r="AA31" s="54"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="52"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="54"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="5" t="s">
         <v>105</v>
@@ -3379,39 +3376,39 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="50"/>
+      <c r="E34" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="48"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="50"/>
+      <c r="H34" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="48"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="49" t="s">
+      <c r="K34" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="50"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="49" t="s">
+      <c r="N34" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="50"/>
+      <c r="O34" s="48"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="49" t="s">
+      <c r="Q34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="50"/>
+      <c r="R34" s="48"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="50"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="50"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="48"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="11"/>
@@ -3424,50 +3421,50 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="45"/>
+      <c r="E35" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="45"/>
+      <c r="H35" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="50"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="50"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" s="45"/>
+      <c r="O35" s="50"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="R35" s="45"/>
+      <c r="Q35" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="R35" s="50"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="U35" s="45"/>
+      <c r="T35" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="U35" s="50"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="X35" s="45"/>
+      <c r="W35" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="X35" s="50"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA35" s="45"/>
+      <c r="Z35" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA35" s="50"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="15"/>
+      <c r="AF35" s="36"/>
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -3475,29 +3472,29 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="52"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="47"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="47"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="52"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="52"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="11"/>
@@ -3510,39 +3507,39 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="51">
-        <v>4</v>
-      </c>
-      <c r="F37" s="52"/>
+      <c r="E37" s="53">
+        <v>4</v>
+      </c>
+      <c r="F37" s="54"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="52"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="51">
+      <c r="K37" s="53">
         <v>13</v>
       </c>
-      <c r="L37" s="52"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="51">
+      <c r="N37" s="53">
         <v>19</v>
       </c>
-      <c r="O37" s="52"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="51">
+      <c r="Q37" s="53">
         <v>23</v>
       </c>
-      <c r="R37" s="52"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="54"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="52"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="54"/>
       <c r="Y37" s="9"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="52"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="54"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
@@ -3590,13 +3587,13 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
+      <c r="E39" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -3606,16 +3603,18 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="13"/>
       <c r="AE39" s="9"/>
@@ -3627,10 +3626,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="61"/>
+      <c r="E40" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="57"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
@@ -3643,16 +3642,18 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="9"/>
@@ -3678,16 +3679,16 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="20"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="9"/>
@@ -3729,16 +3730,28 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U42" s="2">
+        <v>4</v>
+      </c>
       <c r="V42" s="22"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
+      <c r="W42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X42" s="2">
+        <v>4</v>
+      </c>
       <c r="Y42" s="22"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="22"/>
+      <c r="Z42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB42" s="23"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -3752,38 +3765,44 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="50"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="49" t="s">
+      <c r="H43" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="50"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="49" t="s">
+      <c r="N43" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="64"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
+      <c r="W43" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="X43" s="48"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="11"/>
+      <c r="Z43" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="24"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -3797,38 +3816,44 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="50"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" s="45"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="45"/>
+      <c r="L44" s="50"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="O44" s="45"/>
+      <c r="N44" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44" s="50"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="U44" s="50"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
+      <c r="W44" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="X44" s="50"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="12"/>
+      <c r="Z44" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="25"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -3842,30 +3867,30 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="52"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="48"/>
-      <c r="X45" s="48"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="52"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="41"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="26"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -3879,38 +3904,44 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="52"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="51" t="s">
+      <c r="K46" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="52"/>
+      <c r="L46" s="54"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="51" t="s">
+      <c r="N46" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O46" s="52"/>
+      <c r="O46" s="54"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="24"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="61">
+        <v>17</v>
+      </c>
+      <c r="U46" s="62"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
+      <c r="W46" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="54"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="42"/>
+      <c r="Z46" s="53">
+        <v>29</v>
+      </c>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="27"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
@@ -3938,7 +3969,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
+      <c r="S47" s="21"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
@@ -3946,11 +3977,11 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="27"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="57"/>
-      <c r="AE47" s="57"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="9"/>
     </row>
@@ -3989,19 +4020,27 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U48" s="2">
+        <v>4</v>
+      </c>
       <c r="V48" s="11"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
+      <c r="W48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X48" s="2">
+        <v>4</v>
+      </c>
       <c r="Y48" s="11"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="43"/>
+      <c r="AB48" s="29"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="59"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="9"/>
     </row>
@@ -4010,41 +4049,45 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="49" t="s">
+      <c r="H49" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="50"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="50"/>
+      <c r="L49" s="48"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="49" t="s">
+      <c r="N49" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="O49" s="50"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="U49" s="48"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
+      <c r="W49" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="X49" s="48"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="11"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="24"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
+      <c r="AD49" s="59"/>
+      <c r="AE49" s="59"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="9"/>
     </row>
@@ -4053,41 +4096,45 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" s="50"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="50"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="45"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="O50" s="45"/>
+      <c r="O50" s="50"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="U50" s="50"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
+      <c r="W50" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="X50" s="50"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="12"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="25"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="9"/>
     </row>
@@ -4096,30 +4143,30 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="52"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="52"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="48"/>
-      <c r="X51" s="48"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="52"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="41"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="26"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
@@ -4131,38 +4178,42 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="51">
+      <c r="E52" s="53">
         <v>18</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="51">
+      <c r="H52" s="53">
         <v>35</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="54"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="51" t="s">
+      <c r="K52" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="L52" s="52"/>
+      <c r="L52" s="54"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="51">
+      <c r="N52" s="53">
         <v>42</v>
       </c>
-      <c r="O52" s="52"/>
+      <c r="O52" s="54"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="53">
+        <v>35</v>
+      </c>
+      <c r="U52" s="54"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
+      <c r="W52" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="54"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="42"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="27"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
@@ -4188,7 +4239,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
@@ -4196,8 +4247,8 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="27"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -4239,16 +4290,24 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U54" s="2">
+        <v>4</v>
+      </c>
       <c r="V54" s="11"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
+      <c r="W54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X54" s="2">
+        <v>4</v>
+      </c>
       <c r="Y54" s="11"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="43"/>
+      <c r="AB54" s="29"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
@@ -4260,38 +4319,42 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="48"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="55" t="s">
+      <c r="H55" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="56"/>
+      <c r="I55" s="64"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="55" t="s">
+      <c r="K55" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="L55" s="56"/>
+      <c r="L55" s="64"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="49" t="s">
+      <c r="N55" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="O55" s="50"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="U55" s="64"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
+      <c r="W55" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="X55" s="64"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="11"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="24"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -4303,38 +4366,42 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="45"/>
+      <c r="E56" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="50"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="I56" s="45"/>
+      <c r="H56" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="50"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L56" s="45"/>
+      <c r="K56" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56" s="50"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="O56" s="45"/>
+      <c r="N56" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O56" s="50"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="U56" s="50"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
+      <c r="W56" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="X56" s="50"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="11"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="24"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -4346,30 +4413,30 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="52"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="52"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="52"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="52"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="11"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="24"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -4381,38 +4448,42 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="52"/>
+      <c r="F58" s="54"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="I58" s="54"/>
+      <c r="H58" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="62"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="53">
+      <c r="K58" s="61">
         <v>43</v>
       </c>
-      <c r="L58" s="54"/>
+      <c r="L58" s="62"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="51" t="s">
+      <c r="N58" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="O58" s="52"/>
+      <c r="O58" s="54"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="62"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="58"/>
-      <c r="X58" s="58"/>
+      <c r="W58" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="62"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="11"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="24"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -4438,16 +4509,16 @@
       <c r="P59" s="31"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="32"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -4456,8 +4527,6 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="T40:U40"/>
     <mergeCell ref="D2:AF2"/>
     <mergeCell ref="D3:AF3"/>
     <mergeCell ref="D4:AF4"/>
@@ -4472,15 +4541,6 @@
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="E11:F12"/>
@@ -4492,6 +4552,15 @@
     <mergeCell ref="W11:X12"/>
     <mergeCell ref="Z11:AA12"/>
     <mergeCell ref="AC11:AD12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
@@ -4611,79 +4680,81 @@
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="E39:I39"/>
+    <mergeCell ref="T39:X39"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="W50:X51"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="Z43:AA43"/>
     <mergeCell ref="E44:F45"/>
     <mergeCell ref="H44:I45"/>
     <mergeCell ref="K44:L45"/>
     <mergeCell ref="N44:O45"/>
+    <mergeCell ref="T44:U45"/>
     <mergeCell ref="W44:X45"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="Z44:AA45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Z46:AA46"/>
     <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="W56:X57"/>
-    <mergeCell ref="Z44:AA45"/>
-    <mergeCell ref="H56:I57"/>
-    <mergeCell ref="Z56:AA57"/>
+    <mergeCell ref="T49:U49"/>
     <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="K55:L55"/>
     <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Z50:AA51"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Z52:AA52"/>
     <mergeCell ref="E50:F51"/>
     <mergeCell ref="H50:I51"/>
     <mergeCell ref="K50:L51"/>
     <mergeCell ref="N50:O51"/>
+    <mergeCell ref="T50:U51"/>
+    <mergeCell ref="W50:X51"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="N56:O57"/>
     <mergeCell ref="T56:U57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="Z50:AA51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="Z56:AA57"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4691,11 +4762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043CBA6-BA30-4089-BBAC-86D48B28749D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4030761-18DC-4648-957B-684C79604405}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,148 +4835,148 @@
       <c r="A2" s="9"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
       <c r="AG3" s="9"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
+      <c r="D4" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
       <c r="AG4" s="9"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
+      <c r="D5" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -4945,57 +5016,57 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="63"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="63"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="63"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="63" t="s">
+      <c r="T7" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="63"/>
+      <c r="U7" s="46"/>
       <c r="V7" s="14"/>
-      <c r="W7" s="63" t="s">
+      <c r="W7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="63"/>
+      <c r="X7" s="46"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="63" t="s">
+      <c r="Z7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" s="63"/>
+      <c r="AA7" s="46"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AC7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="46"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="36" t="s">
+      <c r="AF7" s="15" t="s">
         <v>81</v>
       </c>
       <c r="AG7" s="9"/>
@@ -5112,53 +5183,53 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="50"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="50"/>
+      <c r="U10" s="48"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="49" t="s">
+      <c r="W10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="50"/>
+      <c r="X10" s="48"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="49" t="s">
+      <c r="Z10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="50"/>
+      <c r="AA10" s="48"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="49" t="s">
+      <c r="AC10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="50"/>
+      <c r="AD10" s="48"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="4" t="s">
         <v>70</v>
@@ -5167,55 +5238,55 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="45"/>
+      <c r="E11" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="50"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="50"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="45"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="45"/>
+      <c r="N11" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="50"/>
       <c r="P11" s="9"/>
-      <c r="Q11" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" s="50"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="U11" s="45"/>
+      <c r="T11" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="U11" s="50"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="X11" s="45"/>
+      <c r="W11" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="X11" s="50"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA11" s="45"/>
+      <c r="Z11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD11" s="50"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="4" t="s">
         <v>63</v>
@@ -5224,35 +5295,35 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="47"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="47"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="52"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="4" t="s">
         <v>64</v>
@@ -5261,53 +5332,53 @@
     </row>
     <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="51">
+      <c r="K13" s="53">
         <v>10</v>
       </c>
-      <c r="L13" s="52"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="51">
+      <c r="T13" s="53">
         <v>26</v>
       </c>
-      <c r="U13" s="52"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="51">
+      <c r="W13" s="53">
         <v>30</v>
       </c>
-      <c r="X13" s="52"/>
+      <c r="X13" s="54"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="51" t="s">
+      <c r="Z13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="52"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="51" t="s">
+      <c r="AC13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AD13" s="52"/>
+      <c r="AD13" s="54"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="4" t="s">
         <v>68</v>
@@ -5430,53 +5501,53 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="48"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="49" t="s">
+      <c r="Q16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="50"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="49" t="s">
+      <c r="W16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="X16" s="50"/>
+      <c r="X16" s="48"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="49" t="s">
+      <c r="Z16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AA16" s="50"/>
+      <c r="AA16" s="48"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="49" t="s">
+      <c r="AC16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AD16" s="50"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="4" t="s">
         <v>62</v>
@@ -5485,55 +5556,55 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="45"/>
+      <c r="E17" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="50"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="H17" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="50"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="45"/>
+      <c r="K17" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="50"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="45"/>
+      <c r="N17" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" s="50"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="R17" s="45"/>
+      <c r="Q17" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="R17" s="50"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="U17" s="45"/>
+      <c r="T17" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" s="50"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="X17" s="45"/>
+      <c r="W17" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" s="50"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA17" s="45"/>
+      <c r="Z17" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA17" s="50"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD17" s="45"/>
+      <c r="AC17" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD17" s="50"/>
       <c r="AE17" s="9"/>
       <c r="AF17" s="4" t="s">
         <v>3</v>
@@ -5542,35 +5613,35 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="52"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="52"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="52"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="4" t="s">
         <v>67</v>
@@ -5579,53 +5650,53 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="51">
+      <c r="E19" s="53">
         <v>2</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="51">
+      <c r="H19" s="53">
         <v>6</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="51">
+      <c r="K19" s="53">
         <v>11</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="52"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="51" t="s">
+      <c r="Q19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="52"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="51">
+      <c r="W19" s="53">
         <v>30</v>
       </c>
-      <c r="X19" s="52"/>
+      <c r="X19" s="54"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="51">
+      <c r="Z19" s="53">
         <v>32</v>
       </c>
-      <c r="AA19" s="52"/>
+      <c r="AA19" s="54"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="51" t="s">
+      <c r="AC19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="52"/>
+      <c r="AD19" s="54"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="4" t="s">
         <v>73</v>
@@ -5746,55 +5817,55 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="50"/>
+      <c r="B22" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="48"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="50"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="50"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="49" t="s">
+      <c r="Q22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="R22" s="50"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="49" t="s">
+      <c r="T22" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="50"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="9"/>
-      <c r="W22" s="49" t="s">
+      <c r="W22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="X22" s="50"/>
+      <c r="X22" s="48"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="49" t="s">
+      <c r="Z22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="AA22" s="50"/>
+      <c r="AA22" s="48"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="49" t="s">
+      <c r="AC22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AD22" s="50"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="4" t="s">
         <v>67</v>
@@ -5803,55 +5874,55 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="50"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="50"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="O23" s="45"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="R23" s="45"/>
+      <c r="Q23" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" s="50"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="45"/>
+      <c r="T23" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="U23" s="50"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="X23" s="45"/>
+      <c r="W23" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="X23" s="50"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA23" s="45"/>
+      <c r="Z23" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD23" s="45"/>
+      <c r="AC23" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD23" s="50"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="4" t="s">
         <v>63</v>
@@ -5860,35 +5931,35 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="52"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="52"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="52"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="4" t="s">
         <v>96</v>
@@ -5897,55 +5968,55 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="51">
+      <c r="E25" s="53">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="51">
+      <c r="H25" s="53">
         <v>7</v>
       </c>
-      <c r="I25" s="52"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="51">
+      <c r="K25" s="53">
         <v>12</v>
       </c>
-      <c r="L25" s="52"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="52"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="51">
+      <c r="Q25" s="53">
         <v>22</v>
       </c>
-      <c r="R25" s="52"/>
+      <c r="R25" s="54"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="51">
+      <c r="T25" s="53">
         <v>27</v>
       </c>
-      <c r="U25" s="52"/>
+      <c r="U25" s="54"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="51" t="s">
+      <c r="W25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="52"/>
+      <c r="X25" s="54"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="51" t="s">
+      <c r="Z25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AA25" s="52"/>
+      <c r="AA25" s="54"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="51" t="s">
+      <c r="AC25" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="52"/>
+      <c r="AD25" s="54"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="9"/>
@@ -6062,196 +6133,196 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="50"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="49" t="s">
+      <c r="N28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="50"/>
+      <c r="O28" s="48"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="R28" s="50"/>
+      <c r="Q28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="48"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="49" t="s">
+      <c r="T28" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="50"/>
+      <c r="U28" s="48"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="X28" s="50"/>
+      <c r="W28" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="X28" s="48"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="49" t="s">
+      <c r="Z28" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="AA28" s="50"/>
+      <c r="AA28" s="48"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="50"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="48"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="9"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O29" s="50"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="R29" s="45"/>
+      <c r="R29" s="50"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="U29" s="45"/>
+      <c r="T29" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="U29" s="50"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="X29" s="45"/>
+      <c r="W29" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="X29" s="50"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA29" s="45"/>
+      <c r="Z29" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA29" s="50"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD29" s="45"/>
+      <c r="AC29" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD29" s="50"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="9"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="47"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="47"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="52"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="47"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="52"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="9"/>
     </row>
     <row r="31" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="51">
+      <c r="E31" s="53">
         <v>3</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="51">
+      <c r="H31" s="53">
         <v>6</v>
       </c>
-      <c r="I31" s="52"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="51">
+      <c r="K31" s="53">
         <v>12</v>
       </c>
-      <c r="L31" s="52"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="51">
+      <c r="N31" s="53">
         <v>18</v>
       </c>
-      <c r="O31" s="52"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="51">
+      <c r="Q31" s="53">
         <v>12</v>
       </c>
-      <c r="R31" s="52"/>
+      <c r="R31" s="54"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="51" t="s">
+      <c r="T31" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="52"/>
+      <c r="U31" s="54"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="51">
+      <c r="W31" s="53">
         <v>33</v>
       </c>
-      <c r="X31" s="52"/>
+      <c r="X31" s="54"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="51">
+      <c r="Z31" s="53">
         <v>38</v>
       </c>
-      <c r="AA31" s="52"/>
+      <c r="AA31" s="54"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="52"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="54"/>
       <c r="AE31" s="9"/>
       <c r="AF31" s="5" t="s">
         <v>105</v>
@@ -6365,39 +6436,39 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="50"/>
+      <c r="E34" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="48"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="50"/>
+      <c r="H34" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="48"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="49" t="s">
+      <c r="K34" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="50"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="49" t="s">
+      <c r="N34" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="50"/>
+      <c r="O34" s="48"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="49" t="s">
+      <c r="Q34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="50"/>
+      <c r="R34" s="48"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="48"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="50"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="50"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="48"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="11"/>
@@ -6410,50 +6481,50 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="45"/>
+      <c r="E35" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="50"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" s="50"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="R35" s="50"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" s="45"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="U35" s="45"/>
+      <c r="U35" s="50"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="X35" s="45"/>
+      <c r="W35" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="X35" s="50"/>
       <c r="Y35" s="9"/>
-      <c r="Z35" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA35" s="45"/>
+      <c r="Z35" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA35" s="50"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="36"/>
+      <c r="AF35" s="15"/>
       <c r="AG35" s="9"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -6461,29 +6532,29 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="52"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="47"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="47"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="52"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="47"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="52"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="11"/>
@@ -6496,39 +6567,39 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="51">
-        <v>4</v>
-      </c>
-      <c r="F37" s="52"/>
+      <c r="E37" s="53">
+        <v>4</v>
+      </c>
+      <c r="F37" s="54"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="52"/>
+      <c r="I37" s="54"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="51">
+      <c r="K37" s="53">
         <v>13</v>
       </c>
-      <c r="L37" s="52"/>
+      <c r="L37" s="54"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="51">
+      <c r="N37" s="53">
         <v>19</v>
       </c>
-      <c r="O37" s="52"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="51">
+      <c r="Q37" s="53">
         <v>23</v>
       </c>
-      <c r="R37" s="52"/>
+      <c r="R37" s="54"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="54"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="52"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="54"/>
       <c r="Y37" s="9"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="52"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="54"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
@@ -6576,13 +6647,13 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
+      <c r="E39" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -6592,18 +6663,16 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
       <c r="AD39" s="13"/>
       <c r="AE39" s="9"/>
@@ -6615,10 +6684,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="F40" s="61"/>
+      <c r="E40" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="57"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
@@ -6631,18 +6700,16 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="9"/>
@@ -6668,16 +6735,16 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="38"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="20"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="9"/>
@@ -6719,28 +6786,16 @@
       <c r="P42" s="22"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U42" s="2">
-        <v>4</v>
-      </c>
+      <c r="S42" s="22"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
       <c r="V42" s="22"/>
-      <c r="W42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X42" s="2">
-        <v>4</v>
-      </c>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
       <c r="Y42" s="22"/>
-      <c r="Z42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="23"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="22"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -6754,44 +6809,38 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="50"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="49" t="s">
+      <c r="H43" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="50"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="49" t="s">
+      <c r="N43" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="O43" s="50"/>
+      <c r="O43" s="48"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="U43" s="56"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="X43" s="50"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
       <c r="Y43" s="11"/>
-      <c r="Z43" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="24"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6805,44 +6854,38 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="50"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" s="45"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="45"/>
+      <c r="L44" s="50"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="O44" s="45"/>
+      <c r="N44" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44" s="50"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="24"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="U44" s="45"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="X44" s="45"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
       <c r="Y44" s="11"/>
-      <c r="Z44" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="25"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="12"/>
       <c r="AC44" s="11"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -6856,30 +6899,30 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="24"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="47"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="47"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="59"/>
       <c r="Y45" s="11"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="26"/>
+      <c r="Z45" s="59"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="41"/>
       <c r="AC45" s="11"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -6893,44 +6936,38 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="52"/>
+      <c r="I46" s="54"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="51" t="s">
+      <c r="K46" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="52"/>
+      <c r="L46" s="54"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="51" t="s">
+      <c r="N46" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="O46" s="52"/>
+      <c r="O46" s="54"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="24"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="53">
-        <v>17</v>
-      </c>
-      <c r="U46" s="54"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="X46" s="52"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
       <c r="Y46" s="11"/>
-      <c r="Z46" s="51">
-        <v>29</v>
-      </c>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="27"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="42"/>
       <c r="AC46" s="11"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
@@ -6958,7 +6995,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="24"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="21"/>
+      <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
@@ -6966,11 +7003,11 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="27"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
       <c r="AC47" s="11"/>
-      <c r="AD47" s="57"/>
-      <c r="AE47" s="57"/>
+      <c r="AD47" s="58"/>
+      <c r="AE47" s="58"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="9"/>
     </row>
@@ -7009,27 +7046,19 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="24"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U48" s="2">
-        <v>4</v>
-      </c>
+      <c r="S48" s="11"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X48" s="2">
-        <v>4</v>
-      </c>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
-      <c r="AB48" s="29"/>
+      <c r="AB48" s="43"/>
       <c r="AC48" s="11"/>
-      <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
+      <c r="AD48" s="59"/>
+      <c r="AE48" s="59"/>
       <c r="AF48" s="11"/>
       <c r="AG48" s="9"/>
     </row>
@@ -7038,45 +7067,41 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="50"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="49" t="s">
+      <c r="H49" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="50"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="50"/>
+      <c r="L49" s="48"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="49" t="s">
+      <c r="N49" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="O49" s="50"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="24"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="U49" s="50"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="X49" s="50"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
       <c r="Y49" s="11"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="24"/>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
+      <c r="AD49" s="59"/>
+      <c r="AE49" s="59"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="9"/>
     </row>
@@ -7085,45 +7110,41 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" s="50"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="50"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="45"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="O50" s="45"/>
+      <c r="O50" s="50"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="24"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="U50" s="45"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="X50" s="45"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
       <c r="Y50" s="11"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="25"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="12"/>
       <c r="AC50" s="11"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
       <c r="AF50" s="11"/>
       <c r="AG50" s="9"/>
     </row>
@@ -7132,30 +7153,30 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="47"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="52"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="24"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="47"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="47"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
       <c r="Y51" s="11"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="26"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="41"/>
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
@@ -7167,42 +7188,38 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="51">
+      <c r="E52" s="53">
         <v>18</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="51">
+      <c r="H52" s="53">
         <v>35</v>
       </c>
-      <c r="I52" s="52"/>
+      <c r="I52" s="54"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="51" t="s">
+      <c r="K52" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="L52" s="52"/>
+      <c r="L52" s="54"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="51">
+      <c r="N52" s="53">
         <v>42</v>
       </c>
-      <c r="O52" s="52"/>
+      <c r="O52" s="54"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="24"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="51">
-        <v>35</v>
-      </c>
-      <c r="U52" s="52"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="52"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
       <c r="Y52" s="11"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="27"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="42"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
@@ -7228,7 +7245,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="24"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="21"/>
+      <c r="S53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
@@ -7236,8 +7253,8 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="27"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
@@ -7279,24 +7296,16 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="24"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U54" s="2">
-        <v>4</v>
-      </c>
+      <c r="S54" s="11"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X54" s="2">
-        <v>4</v>
-      </c>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
-      <c r="AB54" s="29"/>
+      <c r="AB54" s="43"/>
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
@@ -7308,42 +7317,38 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="50"/>
+      <c r="F55" s="48"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="55" t="s">
+      <c r="H55" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="56"/>
+      <c r="I55" s="64"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="55" t="s">
+      <c r="K55" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="L55" s="56"/>
+      <c r="L55" s="64"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="49" t="s">
+      <c r="N55" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="O55" s="50"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="24"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="U55" s="56"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="58"/>
+      <c r="U55" s="58"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="X55" s="56"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="58"/>
       <c r="Y55" s="11"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="24"/>
+      <c r="Z55" s="58"/>
+      <c r="AA55" s="58"/>
+      <c r="AB55" s="11"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -7355,42 +7360,38 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="45"/>
+      <c r="E56" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="50"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="I56" s="45"/>
+      <c r="H56" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="50"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L56" s="45"/>
+      <c r="K56" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56" s="50"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="O56" s="45"/>
+      <c r="N56" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O56" s="50"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="24"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="U56" s="45"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="X56" s="45"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="24"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="11"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -7402,30 +7403,30 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="47"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="52"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="52"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="52"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="24"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="47"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
       <c r="V57" s="11"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="47"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
       <c r="Y57" s="11"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="24"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="11"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -7437,42 +7438,38 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="52"/>
+      <c r="F58" s="54"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="I58" s="54"/>
+      <c r="H58" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="62"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="53">
+      <c r="K58" s="61">
         <v>43</v>
       </c>
-      <c r="L58" s="54"/>
+      <c r="L58" s="62"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="51" t="s">
+      <c r="N58" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="O58" s="52"/>
+      <c r="O58" s="54"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="24"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="U58" s="54"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="54"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
       <c r="Y58" s="11"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="24"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="11"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -7498,16 +7495,16 @@
       <c r="P59" s="31"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="32"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -7516,84 +7513,82 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="N58:O58"/>
     <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="T58:U58"/>
     <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="T56:U57"/>
     <mergeCell ref="K56:L57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="T56:U57"/>
-    <mergeCell ref="W56:X57"/>
-    <mergeCell ref="Z56:AA57"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
     <mergeCell ref="Z50:AA51"/>
-    <mergeCell ref="AD50:AE50"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="Z58:AA58"/>
     <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="T50:U51"/>
-    <mergeCell ref="W50:X51"/>
-    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="Z55:AA55"/>
     <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="W56:X57"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="Z56:AA57"/>
     <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Z49:AA49"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="W50:X51"/>
     <mergeCell ref="E44:F45"/>
     <mergeCell ref="H44:I45"/>
     <mergeCell ref="K44:L45"/>
     <mergeCell ref="N44:O45"/>
-    <mergeCell ref="T44:U45"/>
     <mergeCell ref="W44:X45"/>
+    <mergeCell ref="W46:X46"/>
     <mergeCell ref="Z44:AA45"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="T39:X39"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="N37:O37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="T50:U51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W43:X43"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="K34:L34"/>
@@ -7710,6 +7705,7 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="E11:F12"/>
@@ -7721,15 +7717,8 @@
     <mergeCell ref="W11:X12"/>
     <mergeCell ref="Z11:AA12"/>
     <mergeCell ref="AC11:AD12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="T40:U40"/>
     <mergeCell ref="D2:AF2"/>
     <mergeCell ref="D3:AF3"/>
     <mergeCell ref="D4:AF4"/>
@@ -7744,6 +7733,14 @@
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="W10:X10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
